--- a/data/Oak Journal Analysis (Ph 2).xlsx
+++ b/data/Oak Journal Analysis (Ph 2).xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="850">
-  <si>
-    <t xml:space="preserve">Description of Change </t>
-  </si>
-  <si>
-    <t>Significance of change</t>
-  </si>
-  <si>
-    <t>Contributing Factors</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="846">
   <si>
     <t>Partner</t>
   </si>
@@ -2994,7 +2982,7 @@
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mmmm yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3006,12 +2994,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -3265,322 +3247,316 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -3808,10 +3784,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
@@ -3831,1858 +3807,1840 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+    <row r="2" ht="147.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" ht="147.75" customHeight="1">
-      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="8" t="s">
+    </row>
+    <row r="4" ht="53.25" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" ht="53.25" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="E18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>141</v>
       </c>
+      <c r="H20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="D21" s="13" t="s">
         <v>147</v>
       </c>
+      <c r="E21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="C22" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="D22" s="13">
+        <v>45505.0</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>155</v>
       </c>
+      <c r="F22" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="I22" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="15">
-        <v>45505.0</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="C23" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="D23" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="F23" s="6" t="s">
         <v>163</v>
       </c>
+      <c r="G23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="D24" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="G24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="D25" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="G25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="C26" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="D26" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="H26" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="21" t="s">
+      <c r="B27" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="C27" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="D27" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="24"/>
+      <c r="E27" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>191</v>
-      </c>
       <c r="F28" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7"/>
+      <c r="B29" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9"/>
-      <c r="B29" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>197</v>
+      <c r="C29" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="D29" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I29" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="27" t="s">
+      <c r="D30" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="E30" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="G30" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="27" t="s">
-        <v>202</v>
+      <c r="H30" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
-      <c r="B31" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="31" t="s">
+      <c r="A31" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="32" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="B33" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="33" t="s">
+      <c r="C33" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="33" t="s">
+      <c r="D33" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="E33" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" s="24"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="35" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="E34" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="I34" s="26"/>
+      <c r="F34" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="F35" s="34" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="C35" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="D35" s="35">
+        <v>45383.0</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="F35" s="33" t="s">
         <v>230</v>
       </c>
+      <c r="G35" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="13"/>
-      <c r="B36" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="37">
-        <v>45383.0</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="F36" s="35" t="s">
+      <c r="A36" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="C36" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="D36" s="38" t="s">
         <v>237</v>
       </c>
+      <c r="E36" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="39" t="s">
+      <c r="F37" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F37" s="39" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" s="7"/>
+      <c r="B38" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="G37" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="H37" s="39" t="s">
+      <c r="C38" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I37" s="39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" s="39" t="s">
+      <c r="G38" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F38" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="9"/>
-      <c r="B39" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="39" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="C39" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="D39" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="G39" s="39" t="s">
+      <c r="E39" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39" t="s">
-        <v>246</v>
+      <c r="F39" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7"/>
+      <c r="B41" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="E40" s="39" t="s">
+      <c r="G41" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="F40" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="G40" s="39" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="7"/>
+      <c r="B42" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7"/>
+      <c r="F43" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="36"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="7"/>
+      <c r="B44" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="H40" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9"/>
-      <c r="B42" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9"/>
-      <c r="B43" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="43" t="s">
+      <c r="E44" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="F44" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="F43" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="42" t="s">
+      <c r="H44" s="36"/>
+      <c r="I44" s="40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7"/>
+      <c r="B45" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9"/>
-      <c r="F44" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="H44" s="38"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" s="39" t="s">
+      <c r="D45" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="D45" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="39" t="s">
+      <c r="F45" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" s="36"/>
+      <c r="I45" s="40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7"/>
+      <c r="B46" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" s="39" t="s">
+      <c r="D46" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="E46" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="F46" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="42" t="s">
-        <v>263</v>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="D47" s="40" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="G47" s="39" t="s">
+      <c r="E47" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39" t="s">
+      <c r="F47" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="37" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="13"/>
-      <c r="B48" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C48" s="39" t="s">
+      <c r="H47" s="36"/>
+      <c r="I47" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" ht="29.25" customHeight="1">
+      <c r="A48" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="B49" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" s="39" t="s">
+      <c r="C49" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" ht="29.25" customHeight="1">
-      <c r="A49" s="45" t="s">
+      <c r="D49" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
+      <c r="E49" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>293</v>
+      <c r="A50" s="11"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="47" t="s">
+        <v>296</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="H50" s="46" t="s">
+      <c r="G50" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="I50" s="46" t="s">
+      <c r="H50" s="44" t="s">
         <v>299</v>
       </c>
+      <c r="I50" s="18" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="13"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="49" t="s">
+      <c r="A51" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H51" s="46" t="s">
+      <c r="B52" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="C52" s="50" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="33" t="s">
+      <c r="D52" s="51">
+        <v>45658.0</v>
+      </c>
+      <c r="E52" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
+      <c r="F52" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="I52" s="50" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="D53" s="53">
+      <c r="A53" s="7"/>
+      <c r="B53" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" s="51">
+        <v>45536.0</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7"/>
+      <c r="B54" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="51">
         <v>45658.0</v>
       </c>
-      <c r="E53" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="I53" s="52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="9"/>
-      <c r="B54" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="D54" s="53">
-        <v>45536.0</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="H54" s="52" t="s">
+      <c r="E54" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="I54" s="52" t="s">
+      <c r="F54" s="50" t="s">
         <v>320</v>
       </c>
+      <c r="G54" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="9"/>
-      <c r="B55" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="D55" s="53">
+      <c r="A55" s="7"/>
+      <c r="B55" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="51">
         <v>45658.0</v>
       </c>
-      <c r="E55" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="H55" s="52" t="s">
+      <c r="E55" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="I55" s="52" t="s">
+      <c r="F55" s="50" t="s">
         <v>327</v>
       </c>
+      <c r="G55" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="H55" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="9"/>
-      <c r="B56" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="D56" s="53">
+      <c r="A56" s="7"/>
+      <c r="B56" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="51">
         <v>45658.0</v>
       </c>
-      <c r="E56" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="G56" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="H56" s="52" t="s">
+      <c r="E56" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="I56" s="52" t="s">
+      <c r="F56" s="50" t="s">
         <v>334</v>
       </c>
+      <c r="G56" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="H56" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="9"/>
-      <c r="B57" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="D57" s="53">
-        <v>45658.0</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="F57" s="52" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="G57" s="52" t="s">
+      <c r="C57" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="H57" s="52" t="s">
+      <c r="D57" s="51">
+        <v>45627.0</v>
+      </c>
+      <c r="E57" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="I57" s="52" t="s">
+      <c r="F57" s="50" t="s">
         <v>341</v>
       </c>
+      <c r="G57" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="9"/>
-      <c r="B58" s="52" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="D58" s="53">
-        <v>45627.0</v>
-      </c>
-      <c r="E58" s="52" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7"/>
+      <c r="B59" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59" s="51">
+        <v>45566.0</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="I59" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="F58" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="G58" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="I58" s="52" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9"/>
-      <c r="B59" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>350</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="F59" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="G59" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="I59" s="52" t="s">
-        <v>356</v>
-      </c>
     </row>
     <row r="60">
-      <c r="A60" s="9"/>
-      <c r="B60" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="D60" s="53">
-        <v>45566.0</v>
-      </c>
-      <c r="E60" s="52" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="C60" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="G60" s="52" t="s">
+      <c r="D60" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="H60" s="52" t="s">
+      <c r="E60" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="I60" s="52" t="s">
-        <v>348</v>
+      <c r="F60" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="I60" s="50" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9"/>
-      <c r="B61" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="D61" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="E61" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="F61" s="52" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="G61" s="52" t="s">
+      <c r="C61" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="H61" s="52" t="s">
+      <c r="D61" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="I61" s="52" t="s">
+      <c r="E61" s="50" t="s">
         <v>370</v>
       </c>
+      <c r="F61" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="H61" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="I61" s="50" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="9"/>
-      <c r="B62" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>373</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="F62" s="52" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="G62" s="52" t="s">
+      <c r="C62" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="H62" s="52" t="s">
+      <c r="D62" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="E62" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="I62" s="52" t="s">
+      <c r="F62" s="50" t="s">
         <v>378</v>
       </c>
+      <c r="G62" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="13"/>
-      <c r="B63" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>380</v>
+      <c r="A63" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>373</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="G63" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="I63" s="52" t="s">
         <v>385</v>
       </c>
+      <c r="E63" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7"/>
+      <c r="B65" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7"/>
+      <c r="B66" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="E64" s="19" t="s">
+      <c r="F66" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I66" s="54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7"/>
+      <c r="B67" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="I67" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="F64" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="H64" s="19" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="11"/>
+      <c r="B68" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D68" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="I64" s="56" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9"/>
-      <c r="B65" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D65" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="E65" s="19" t="s">
+      <c r="E68" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="G68" s="55"/>
+      <c r="H68" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I68" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I65" s="56" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9"/>
-      <c r="B66" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="I66" s="56" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9"/>
-      <c r="B67" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D67" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="I67" s="56" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9"/>
-      <c r="B68" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="I68" s="56" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="69">
-      <c r="A69" s="13"/>
-      <c r="B69" s="19" t="s">
+      <c r="A69" s="56" t="s">
         <v>419</v>
       </c>
-      <c r="C69" s="19" t="s">
+    </row>
+    <row r="70">
+      <c r="A70" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="D69" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="G69" s="57"/>
-      <c r="H69" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="I69" s="56" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="58" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="71">
-      <c r="A71" s="59" t="s">
-        <v>424</v>
-      </c>
+      <c r="A71" s="58"/>
     </row>
     <row r="72">
-      <c r="A72" s="60"/>
+      <c r="A72" s="58"/>
     </row>
     <row r="73">
-      <c r="A73" s="60"/>
+      <c r="A73" s="58"/>
     </row>
     <row r="74">
-      <c r="A74" s="60"/>
+      <c r="A74" s="58"/>
     </row>
     <row r="75">
-      <c r="A75" s="60"/>
+      <c r="A75" s="58"/>
     </row>
     <row r="76">
-      <c r="A76" s="60"/>
+      <c r="A76" s="58"/>
     </row>
     <row r="77">
-      <c r="A77" s="60"/>
+      <c r="A77" s="58"/>
     </row>
     <row r="78">
-      <c r="A78" s="60"/>
+      <c r="A78" s="58"/>
     </row>
     <row r="79">
-      <c r="A79" s="60"/>
+      <c r="A79" s="58"/>
     </row>
     <row r="80">
-      <c r="A80" s="60"/>
+      <c r="A80" s="58"/>
     </row>
     <row r="81">
-      <c r="A81" s="60"/>
+      <c r="A81" s="58"/>
     </row>
     <row r="82">
-      <c r="A82" s="60"/>
+      <c r="A82" s="58"/>
     </row>
     <row r="83">
-      <c r="A83" s="60"/>
+      <c r="A83" s="58"/>
     </row>
     <row r="84">
-      <c r="A84" s="60"/>
+      <c r="A84" s="58"/>
     </row>
     <row r="85">
-      <c r="A85" s="60"/>
+      <c r="A85" s="58"/>
     </row>
     <row r="86">
-      <c r="A86" s="60"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="60"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="60"/>
+      <c r="A86" s="58"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="A50:A51"/>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A52:A62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I22"/>
+    <hyperlink r:id="rId1" ref="I21"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5695,8 +5653,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
@@ -5716,1432 +5674,1414 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    <row r="2" ht="123.75" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" ht="123.75" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="F2" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="G2" s="63" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="H2" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="I2" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="65" t="s">
+    </row>
+    <row r="3" ht="89.25" customHeight="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="C3" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="E3" s="63" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="4" ht="89.25" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68" t="s">
+      <c r="F3" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="G3" s="63" t="s">
         <v>436</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="H3" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="I3" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="65" t="s">
+    </row>
+    <row r="4" ht="96.0" customHeight="1">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="C4" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="D4" s="67" t="s">
         <v>441</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="E4" s="63" t="s">
         <v>442</v>
       </c>
+      <c r="F4" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="5" ht="96.0" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>445</v>
-      </c>
-      <c r="E5" s="65" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="I5" s="63" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>450</v>
-      </c>
     </row>
     <row r="6" ht="96.0" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="E6" s="65" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="68" t="s">
         <v>454</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>455</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="D6" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="E6" s="68" t="s">
         <v>457</v>
       </c>
-      <c r="I6" s="65" t="s">
-        <v>450</v>
+      <c r="F6" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="7" ht="96.0" customHeight="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="70" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>460</v>
+        <v>463</v>
+      </c>
+      <c r="D7" s="71">
+        <v>45658.0</v>
       </c>
       <c r="E7" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>465</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>466</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I7" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>463</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>464</v>
-      </c>
-      <c r="I7" s="71" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" ht="96.0" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="72" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="73">
-        <v>45658.0</v>
-      </c>
-      <c r="E8" s="72" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="72" t="s">
         <v>468</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="B8" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="C8" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="D8" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="I8" s="71" t="s">
-        <v>465</v>
+      <c r="E8" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="74" t="s">
-        <v>472</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="D9" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>480</v>
       </c>
+      <c r="F9" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="67"/>
-      <c r="B10" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>488</v>
       </c>
+      <c r="F10" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="67"/>
-      <c r="B11" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65"/>
+      <c r="B12" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="67"/>
-      <c r="B12" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>502</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>504</v>
+      <c r="I12" s="25" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="67"/>
-      <c r="B13" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>509</v>
+      <c r="I13" s="25" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="67"/>
-      <c r="B14" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="I14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>515</v>
       </c>
+      <c r="F14" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="67"/>
-      <c r="B15" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>523</v>
       </c>
+      <c r="F15" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="67"/>
-      <c r="B16" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>531</v>
       </c>
+      <c r="F16" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="67"/>
-      <c r="B17" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="F17" s="27" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="D17" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="G17" s="25" t="s">
         <v>539</v>
       </c>
+      <c r="H17" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="67"/>
-      <c r="B18" s="27" t="s">
-        <v>540</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>541</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="G18" s="25" t="s">
         <v>545</v>
       </c>
+      <c r="H18" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="67"/>
-      <c r="B19" s="27" t="s">
-        <v>546</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="67"/>
-      <c r="B20" s="27" t="s">
+      <c r="F19" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="G19" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="H19" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="I19" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="F20" s="27" t="s">
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="65"/>
+      <c r="B20" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="F20" s="25" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="H20" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="I20" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="F21" s="27" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="65"/>
+      <c r="B21" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="F21" s="25" t="s">
         <v>566</v>
       </c>
+      <c r="G21" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="67"/>
-      <c r="B22" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F22" s="27" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="G22" s="25" t="s">
         <v>573</v>
       </c>
+      <c r="H22" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="67"/>
-      <c r="B23" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="F23" s="25" t="s">
         <v>579</v>
       </c>
+      <c r="G23" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="67"/>
-      <c r="B24" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="F24" s="27" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="D24" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>586</v>
       </c>
+      <c r="G24" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="F25" s="27" t="s">
+      <c r="A25" s="73" t="s">
         <v>590</v>
       </c>
-      <c r="G25" s="27" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="73" t="s">
         <v>591</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="B26" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="C26" s="37" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="75" t="s">
+      <c r="D26" s="37" t="s">
         <v>594</v>
       </c>
+      <c r="E26" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D27" s="74">
+        <v>45597.0</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65"/>
+      <c r="B28" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" ht="101.25" customHeight="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="E29" s="37" t="s">
         <v>595</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>599</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>600</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="67"/>
-      <c r="B28" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>605</v>
-      </c>
-      <c r="D28" s="76">
-        <v>45597.0</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>606</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>607</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="67"/>
-      <c r="B29" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="H29" s="39" t="s">
+      <c r="F29" s="37" t="s">
         <v>614</v>
       </c>
-      <c r="I29" s="38" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="30" ht="101.25" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="39" t="s">
+      <c r="G29" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="H29" s="40" t="s">
         <v>616</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="I29" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="E30" s="39" t="s">
-        <v>599</v>
-      </c>
-      <c r="F30" s="39" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="73" t="s">
         <v>618</v>
       </c>
-      <c r="G30" s="39" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="73" t="s">
         <v>619</v>
       </c>
-      <c r="H30" s="42" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="73" t="s">
         <v>620</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="75" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="75" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="75" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="34" ht="21.0" customHeight="1">
+      <c r="A34" s="75" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="76" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="65"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="65"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="65"/>
+    </row>
+    <row r="40" ht="1.5" customHeight="1">
+      <c r="A40" s="65"/>
+    </row>
+    <row r="41" ht="1.5" customHeight="1">
+      <c r="A41" s="48"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="76" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="77" t="s">
+      <c r="B42" s="77" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="35" ht="21.0" customHeight="1">
-      <c r="A35" s="77" t="s">
+      <c r="C42" s="77" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="78" t="s">
+      <c r="D42" s="78">
+        <v>45383.0</v>
+      </c>
+      <c r="E42" s="77" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="67"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="67"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="67"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="67"/>
-    </row>
-    <row r="41" ht="1.5" customHeight="1">
-      <c r="A41" s="67"/>
-    </row>
-    <row r="42" ht="1.5" customHeight="1">
-      <c r="A42" s="50"/>
+      <c r="F42" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>629</v>
+      </c>
+      <c r="H42" s="77" t="s">
+        <v>630</v>
+      </c>
+      <c r="I42" s="77" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="65"/>
+      <c r="B43" s="77" t="s">
+        <v>632</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>626</v>
+      </c>
+      <c r="D43" s="78">
+        <v>45383.0</v>
+      </c>
+      <c r="E43" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="F43" s="79" t="s">
         <v>628</v>
       </c>
-      <c r="B43" s="79" t="s">
-        <v>629</v>
-      </c>
-      <c r="C43" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="D43" s="80">
+      <c r="G43" s="77" t="s">
+        <v>634</v>
+      </c>
+      <c r="H43" s="77" t="s">
+        <v>635</v>
+      </c>
+      <c r="I43" s="77" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="65"/>
+      <c r="B44" s="77" t="s">
+        <v>637</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>638</v>
+      </c>
+      <c r="D44" s="78">
         <v>45383.0</v>
       </c>
-      <c r="E43" s="79" t="s">
-        <v>631</v>
-      </c>
-      <c r="F43" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G43" s="79" t="s">
+      <c r="E44" s="77" t="s">
+        <v>639</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G44" s="77" t="s">
+        <v>640</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>641</v>
+      </c>
+      <c r="I44" s="77" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="65"/>
+      <c r="B45" s="77" t="s">
+        <v>643</v>
+      </c>
+      <c r="C45" s="77" t="s">
+        <v>644</v>
+      </c>
+      <c r="D45" s="78">
+        <v>45413.0</v>
+      </c>
+      <c r="E45" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G45" s="77" t="s">
+        <v>645</v>
+      </c>
+      <c r="H45" s="77" t="s">
+        <v>646</v>
+      </c>
+      <c r="I45" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" ht="34.5" customHeight="1">
+      <c r="A46" s="65"/>
+      <c r="B46" s="77" t="s">
+        <v>647</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>648</v>
+      </c>
+      <c r="D46" s="78">
+        <v>45413.0</v>
+      </c>
+      <c r="E46" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G46" s="77" t="s">
+        <v>649</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>650</v>
+      </c>
+      <c r="I46" s="77" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="65"/>
+      <c r="B47" s="77" t="s">
+        <v>652</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>653</v>
+      </c>
+      <c r="D47" s="78">
+        <v>45413.0</v>
+      </c>
+      <c r="E47" s="77" t="s">
         <v>633</v>
       </c>
-      <c r="H43" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="I43" s="79" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="67"/>
-      <c r="B44" s="79" t="s">
-        <v>636</v>
-      </c>
-      <c r="C44" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="D44" s="80">
-        <v>45383.0</v>
-      </c>
-      <c r="E44" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="F44" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G44" s="79" t="s">
+      <c r="F47" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G47" s="77" t="s">
+        <v>654</v>
+      </c>
+      <c r="H47" s="77" t="s">
+        <v>655</v>
+      </c>
+      <c r="I47" s="77" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="65"/>
+      <c r="B48" s="77" t="s">
+        <v>657</v>
+      </c>
+      <c r="C48" s="77" t="s">
         <v>638</v>
       </c>
-      <c r="H44" s="79" t="s">
-        <v>639</v>
-      </c>
-      <c r="I44" s="79" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="67"/>
-      <c r="B45" s="79" t="s">
-        <v>641</v>
-      </c>
-      <c r="C45" s="79" t="s">
-        <v>642</v>
-      </c>
-      <c r="D45" s="80">
-        <v>45383.0</v>
-      </c>
-      <c r="E45" s="79" t="s">
-        <v>643</v>
-      </c>
-      <c r="F45" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G45" s="79" t="s">
+      <c r="D48" s="78">
+        <v>45413.0</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>658</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G48" s="77" t="s">
+        <v>659</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>660</v>
+      </c>
+      <c r="I48" s="77" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="65"/>
+      <c r="B49" s="77" t="s">
+        <v>647</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>638</v>
+      </c>
+      <c r="D49" s="78">
+        <v>45444.0</v>
+      </c>
+      <c r="E49" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="F49" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G49" s="77" t="s">
+        <v>662</v>
+      </c>
+      <c r="H49" s="77" t="s">
+        <v>650</v>
+      </c>
+      <c r="I49" s="77" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="65"/>
+      <c r="B50" s="77" t="s">
+        <v>664</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>665</v>
+      </c>
+      <c r="D50" s="78">
+        <v>45444.0</v>
+      </c>
+      <c r="E50" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="F50" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G50" s="77" t="s">
+        <v>666</v>
+      </c>
+      <c r="H50" s="77" t="s">
+        <v>667</v>
+      </c>
+      <c r="I50" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="65"/>
+      <c r="B51" s="77" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51" s="77" t="s">
+        <v>653</v>
+      </c>
+      <c r="D51" s="78">
+        <v>45444.0</v>
+      </c>
+      <c r="E51" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G51" s="77" t="s">
+        <v>668</v>
+      </c>
+      <c r="H51" s="77" t="s">
+        <v>669</v>
+      </c>
+      <c r="I51" s="77" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="52" ht="72.0" customHeight="1">
+      <c r="A52" s="65"/>
+      <c r="B52" s="77" t="s">
+        <v>647</v>
+      </c>
+      <c r="C52" s="77" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="78">
+        <v>45474.0</v>
+      </c>
+      <c r="E52" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G52" s="77" t="s">
+        <v>670</v>
+      </c>
+      <c r="H52" s="77" t="s">
+        <v>655</v>
+      </c>
+      <c r="I52" s="77" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="53" ht="66.0" customHeight="1">
+      <c r="A53" s="65"/>
+      <c r="B53" s="77" t="s">
+        <v>671</v>
+      </c>
+      <c r="C53" s="77" t="s">
+        <v>665</v>
+      </c>
+      <c r="D53" s="78">
+        <v>45474.0</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>672</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G53" s="77" t="s">
+        <v>673</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>674</v>
+      </c>
+      <c r="I53" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" ht="73.5" customHeight="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="77" t="s">
+        <v>647</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>675</v>
+      </c>
+      <c r="D54" s="78">
+        <v>45505.0</v>
+      </c>
+      <c r="E54" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G54" s="77" t="s">
+        <v>676</v>
+      </c>
+      <c r="H54" s="77" t="s">
+        <v>677</v>
+      </c>
+      <c r="I54" s="77" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="65"/>
+      <c r="B55" s="77" t="s">
+        <v>678</v>
+      </c>
+      <c r="C55" s="77" t="s">
         <v>644</v>
       </c>
-      <c r="H45" s="79" t="s">
-        <v>645</v>
-      </c>
-      <c r="I45" s="79" t="s">
+      <c r="D55" s="78">
+        <v>45536.0</v>
+      </c>
+      <c r="E55" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>679</v>
+      </c>
+      <c r="G55" s="77" t="s">
+        <v>680</v>
+      </c>
+      <c r="H55" s="77" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="67"/>
-      <c r="B46" s="79" t="s">
-        <v>647</v>
-      </c>
-      <c r="C46" s="79" t="s">
-        <v>648</v>
-      </c>
-      <c r="D46" s="80">
-        <v>45413.0</v>
-      </c>
-      <c r="E46" s="79" t="s">
-        <v>631</v>
-      </c>
-      <c r="F46" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G46" s="79" t="s">
-        <v>649</v>
-      </c>
-      <c r="H46" s="79" t="s">
-        <v>650</v>
-      </c>
-      <c r="I46" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" ht="34.5" customHeight="1">
-      <c r="A47" s="67"/>
-      <c r="B47" s="79" t="s">
-        <v>651</v>
-      </c>
-      <c r="C47" s="79" t="s">
+      <c r="I55" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="65"/>
+      <c r="B56" s="77" t="s">
+        <v>681</v>
+      </c>
+      <c r="C56" s="77" t="s">
+        <v>682</v>
+      </c>
+      <c r="D56" s="78">
+        <v>45566.0</v>
+      </c>
+      <c r="E56" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>679</v>
+      </c>
+      <c r="G56" s="77" t="s">
+        <v>683</v>
+      </c>
+      <c r="H56" s="77" t="s">
+        <v>684</v>
+      </c>
+      <c r="I56" s="77" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="65"/>
+      <c r="B57" s="77" t="s">
         <v>652</v>
       </c>
-      <c r="D47" s="80">
-        <v>45413.0</v>
-      </c>
-      <c r="E47" s="79" t="s">
-        <v>631</v>
-      </c>
-      <c r="F47" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G47" s="79" t="s">
-        <v>653</v>
-      </c>
-      <c r="H47" s="79" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="79" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="67"/>
-      <c r="B48" s="79" t="s">
-        <v>656</v>
-      </c>
-      <c r="C48" s="79" t="s">
-        <v>657</v>
-      </c>
-      <c r="D48" s="80">
-        <v>45413.0</v>
-      </c>
-      <c r="E48" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="F48" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G48" s="79" t="s">
-        <v>658</v>
-      </c>
-      <c r="H48" s="79" t="s">
-        <v>659</v>
-      </c>
-      <c r="I48" s="79" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="67"/>
-      <c r="B49" s="79" t="s">
-        <v>661</v>
-      </c>
-      <c r="C49" s="79" t="s">
-        <v>642</v>
-      </c>
-      <c r="D49" s="80">
-        <v>45413.0</v>
-      </c>
-      <c r="E49" s="79" t="s">
-        <v>662</v>
-      </c>
-      <c r="F49" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G49" s="79" t="s">
-        <v>663</v>
-      </c>
-      <c r="H49" s="79" t="s">
-        <v>664</v>
-      </c>
-      <c r="I49" s="79" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="67"/>
-      <c r="B50" s="79" t="s">
-        <v>651</v>
-      </c>
-      <c r="C50" s="79" t="s">
-        <v>642</v>
-      </c>
-      <c r="D50" s="80">
-        <v>45444.0</v>
-      </c>
-      <c r="E50" s="79" t="s">
-        <v>631</v>
-      </c>
-      <c r="F50" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G50" s="79" t="s">
-        <v>666</v>
-      </c>
-      <c r="H50" s="79" t="s">
-        <v>654</v>
-      </c>
-      <c r="I50" s="79" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="67"/>
-      <c r="B51" s="79" t="s">
-        <v>668</v>
-      </c>
-      <c r="C51" s="79" t="s">
-        <v>669</v>
-      </c>
-      <c r="D51" s="80">
-        <v>45444.0</v>
-      </c>
-      <c r="E51" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="F51" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G51" s="79" t="s">
-        <v>670</v>
-      </c>
-      <c r="H51" s="79" t="s">
-        <v>671</v>
-      </c>
-      <c r="I51" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="67"/>
-      <c r="B52" s="79" t="s">
-        <v>656</v>
-      </c>
-      <c r="C52" s="79" t="s">
-        <v>657</v>
-      </c>
-      <c r="D52" s="80">
-        <v>45444.0</v>
-      </c>
-      <c r="E52" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="F52" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G52" s="79" t="s">
-        <v>672</v>
-      </c>
-      <c r="H52" s="79" t="s">
-        <v>673</v>
-      </c>
-      <c r="I52" s="79" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="53" ht="72.0" customHeight="1">
-      <c r="A53" s="67"/>
-      <c r="B53" s="79" t="s">
-        <v>651</v>
-      </c>
-      <c r="C53" s="79" t="s">
-        <v>657</v>
-      </c>
-      <c r="D53" s="80">
-        <v>45474.0</v>
-      </c>
-      <c r="E53" s="79" t="s">
-        <v>631</v>
-      </c>
-      <c r="F53" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G53" s="79" t="s">
-        <v>674</v>
-      </c>
-      <c r="H53" s="79" t="s">
-        <v>659</v>
-      </c>
-      <c r="I53" s="79" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="54" ht="66.0" customHeight="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="79" t="s">
-        <v>675</v>
-      </c>
-      <c r="C54" s="79" t="s">
-        <v>669</v>
-      </c>
-      <c r="D54" s="80">
-        <v>45474.0</v>
-      </c>
-      <c r="E54" s="79" t="s">
-        <v>676</v>
-      </c>
-      <c r="F54" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G54" s="79" t="s">
-        <v>677</v>
-      </c>
-      <c r="H54" s="79" t="s">
-        <v>678</v>
-      </c>
-      <c r="I54" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" ht="73.5" customHeight="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="79" t="s">
-        <v>651</v>
-      </c>
-      <c r="C55" s="79" t="s">
-        <v>679</v>
-      </c>
-      <c r="D55" s="80">
-        <v>45505.0</v>
-      </c>
-      <c r="E55" s="79" t="s">
-        <v>631</v>
-      </c>
-      <c r="F55" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G55" s="79" t="s">
-        <v>680</v>
-      </c>
-      <c r="H55" s="79" t="s">
-        <v>681</v>
-      </c>
-      <c r="I55" s="79" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="67"/>
-      <c r="B56" s="79" t="s">
-        <v>682</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>648</v>
-      </c>
-      <c r="D56" s="80">
-        <v>45536.0</v>
-      </c>
-      <c r="E56" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="F56" s="81" t="s">
-        <v>683</v>
-      </c>
-      <c r="G56" s="79" t="s">
-        <v>684</v>
-      </c>
-      <c r="H56" s="79" t="s">
-        <v>650</v>
-      </c>
-      <c r="I56" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="67"/>
-      <c r="B57" s="79" t="s">
-        <v>685</v>
-      </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="77" t="s">
         <v>686</v>
       </c>
-      <c r="D57" s="80">
-        <v>45566.0</v>
-      </c>
-      <c r="E57" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>683</v>
-      </c>
-      <c r="G57" s="79" t="s">
+      <c r="D57" s="78">
+        <v>45627.0</v>
+      </c>
+      <c r="E57" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="F57" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G57" s="77" t="s">
         <v>687</v>
       </c>
-      <c r="H57" s="79" t="s">
+      <c r="H57" s="77" t="s">
         <v>688</v>
       </c>
-      <c r="I57" s="79" t="s">
+      <c r="I57" s="77" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="67"/>
-      <c r="B58" s="79" t="s">
-        <v>656</v>
-      </c>
-      <c r="C58" s="79" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="77" t="s">
         <v>690</v>
       </c>
-      <c r="D58" s="80">
-        <v>45627.0</v>
-      </c>
-      <c r="E58" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="F58" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G58" s="79" t="s">
+      <c r="C58" s="77" t="s">
         <v>691</v>
       </c>
-      <c r="H58" s="79" t="s">
+      <c r="D58" s="78">
+        <v>45658.0</v>
+      </c>
+      <c r="E58" s="77" t="s">
         <v>692</v>
       </c>
-      <c r="I58" s="79" t="s">
+      <c r="F58" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="G58" s="77" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="50"/>
-      <c r="B59" s="79" t="s">
+      <c r="H58" s="77" t="s">
         <v>694</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="I58" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" ht="75.75" customHeight="1">
+      <c r="A59" s="76" t="s">
         <v>695</v>
       </c>
-      <c r="D59" s="80">
+      <c r="B59" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="D59" s="81">
         <v>45658.0</v>
       </c>
-      <c r="E59" s="79" t="s">
-        <v>696</v>
-      </c>
-      <c r="F59" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="G59" s="79" t="s">
-        <v>697</v>
-      </c>
-      <c r="H59" s="79" t="s">
+      <c r="E59" s="80" t="s">
         <v>698</v>
       </c>
-      <c r="I59" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" ht="75.75" customHeight="1">
-      <c r="A60" s="78" t="s">
+      <c r="F59" s="82" t="s">
         <v>699</v>
       </c>
-      <c r="B60" s="82" t="s">
+      <c r="G59" s="83" t="s">
         <v>700</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="H59" s="80" t="s">
         <v>701</v>
       </c>
-      <c r="D60" s="83">
-        <v>45658.0</v>
-      </c>
-      <c r="E60" s="82" t="s">
+      <c r="I59" s="84" t="s">
         <v>702</v>
       </c>
-      <c r="F60" s="84" t="s">
+      <c r="J59" s="85"/>
+      <c r="K59" s="86"/>
+    </row>
+    <row r="60" ht="66.75" customHeight="1">
+      <c r="A60" s="65"/>
+      <c r="B60" s="80" t="s">
         <v>703</v>
       </c>
-      <c r="G60" s="85" t="s">
+      <c r="C60" s="70" t="s">
         <v>704</v>
       </c>
-      <c r="H60" s="82" t="s">
+      <c r="D60" s="81">
+        <v>45870.0</v>
+      </c>
+      <c r="E60" s="80" t="s">
         <v>705</v>
       </c>
-      <c r="I60" s="86" t="s">
+      <c r="F60" s="82" t="s">
         <v>706</v>
       </c>
-      <c r="J60" s="87"/>
-      <c r="K60" s="88"/>
-    </row>
-    <row r="61" ht="66.75" customHeight="1">
-      <c r="A61" s="67"/>
-      <c r="B61" s="82" t="s">
+      <c r="G60" s="80" t="s">
         <v>707</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="H60" s="80" t="s">
         <v>708</v>
       </c>
-      <c r="D61" s="83">
-        <v>45870.0</v>
-      </c>
-      <c r="E61" s="82" t="s">
+      <c r="I60" s="84" t="s">
         <v>709</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="J60" s="85"/>
+      <c r="K60" s="86"/>
+    </row>
+    <row r="61" ht="74.25" customHeight="1">
+      <c r="A61" s="65"/>
+      <c r="B61" s="80" t="s">
         <v>710</v>
       </c>
-      <c r="G61" s="82" t="s">
+      <c r="C61" s="80" t="s">
         <v>711</v>
       </c>
-      <c r="H61" s="82" t="s">
+      <c r="D61" s="80" t="s">
         <v>712</v>
       </c>
-      <c r="I61" s="86" t="s">
+      <c r="E61" s="80" t="s">
+        <v>698</v>
+      </c>
+      <c r="F61" s="87" t="s">
         <v>713</v>
       </c>
-      <c r="J61" s="87"/>
-      <c r="K61" s="88"/>
-    </row>
-    <row r="62" ht="74.25" customHeight="1">
-      <c r="A62" s="67"/>
-      <c r="B62" s="82" t="s">
+      <c r="G61" s="88" t="s">
         <v>714</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="H61" s="88" t="s">
         <v>715</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="I61" s="84" t="s">
         <v>716</v>
       </c>
-      <c r="E62" s="82" t="s">
-        <v>702</v>
-      </c>
-      <c r="F62" s="89" t="s">
+      <c r="J61" s="84" t="s">
         <v>717</v>
       </c>
-      <c r="G62" s="90" t="s">
+      <c r="K61" s="84" t="s">
         <v>718</v>
       </c>
-      <c r="H62" s="90" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" s="48"/>
+      <c r="B62" s="80" t="s">
         <v>719</v>
       </c>
-      <c r="I62" s="86" t="s">
+      <c r="C62" s="80" t="s">
         <v>720</v>
       </c>
-      <c r="J62" s="86" t="s">
+      <c r="D62" s="80" t="s">
         <v>721</v>
       </c>
-      <c r="K62" s="86" t="s">
+      <c r="E62" s="80" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="50"/>
-      <c r="B63" s="82" t="s">
+      <c r="F62" s="87" t="s">
         <v>723</v>
       </c>
-      <c r="C63" s="82" t="s">
+      <c r="G62" s="88" t="s">
         <v>724</v>
       </c>
-      <c r="D63" s="82" t="s">
+      <c r="H62" s="80" t="s">
         <v>725</v>
       </c>
-      <c r="E63" s="82" t="s">
+      <c r="I62" s="89" t="s">
         <v>726</v>
       </c>
-      <c r="F63" s="89" t="s">
-        <v>727</v>
-      </c>
-      <c r="G63" s="90" t="s">
-        <v>728</v>
-      </c>
-      <c r="H63" s="82" t="s">
-        <v>729</v>
-      </c>
-      <c r="I63" s="91" t="s">
-        <v>730</v>
-      </c>
-      <c r="J63" s="86" t="s">
-        <v>722</v>
-      </c>
-      <c r="K63" s="88"/>
+      <c r="J62" s="84" t="s">
+        <v>718</v>
+      </c>
+      <c r="K62" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F26:F28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7172,465 +7112,447 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" ht="46.5" customHeight="1">
-      <c r="A3" s="92" t="s">
+    <row r="2" ht="46.5" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" customHeight="1">
+      <c r="A3" s="91" t="s">
+        <v>728</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>729</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>730</v>
+      </c>
+      <c r="D3" s="93" t="s">
         <v>731</v>
       </c>
+      <c r="E3" s="94" t="s">
+        <v>732</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>733</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>734</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>735</v>
+      </c>
+      <c r="I3" s="95" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="4" ht="49.5" customHeight="1">
-      <c r="A4" s="93" t="s">
-        <v>732</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>733</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>734</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>736</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="92" t="s">
         <v>737</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>738</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="D4" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="44" t="s">
         <v>739</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="G4" s="44" t="s">
         <v>740</v>
       </c>
+      <c r="H4" s="44" t="s">
+        <v>741</v>
+      </c>
+      <c r="I4" s="95" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="5" ht="49.5" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="94" t="s">
-        <v>741</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>742</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="46" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="92" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>744</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="44" t="s">
         <v>745</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="G5" s="44" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="6" ht="49.5" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="94" t="s">
+      <c r="H5" s="44" t="s">
         <v>747</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="I5" s="95" t="s">
         <v>748</v>
       </c>
-      <c r="D6" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="46" t="s">
+    </row>
+    <row r="6" ht="62.25" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="92" t="s">
         <v>749</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>750</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="D6" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="44" t="s">
         <v>751</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="G6" s="44" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="7" ht="62.25" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="94" t="s">
+      <c r="H6" s="44" t="s">
         <v>753</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="I6" s="95" t="s">
         <v>754</v>
       </c>
-      <c r="D7" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="46" t="s">
+    </row>
+    <row r="7" ht="85.5" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="92" t="s">
         <v>755</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="D7" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="44" t="s">
         <v>757</v>
       </c>
-      <c r="I7" s="97" t="s">
+      <c r="G7" s="44" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="8" ht="85.5" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="94" t="s">
+      <c r="H7" s="44" t="s">
         <v>759</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="I7" s="44" t="s">
         <v>760</v>
       </c>
-      <c r="D8" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="46" t="s">
+    </row>
+    <row r="8" ht="112.5" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="92" t="s">
         <v>761</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>762</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="D8" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="44" t="s">
         <v>763</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="G8" s="44" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="9" ht="112.5" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="94" t="s">
+      <c r="H8" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="I8" s="44" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" ht="92.25" customHeight="1">
+      <c r="A9" s="91" t="s">
         <v>766</v>
       </c>
-      <c r="D9" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="46" t="s">
+      <c r="B9" s="58" t="s">
         <v>767</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="C9" s="58" t="s">
         <v>768</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="58" t="s">
         <v>769</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="10" ht="92.25" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="F9" s="58" t="s">
         <v>770</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="G9" s="58" t="s">
         <v>771</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="H9" s="58" t="s">
         <v>772</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="60" t="s">
+      <c r="I9" s="58" t="s">
         <v>773</v>
       </c>
-      <c r="F10" s="60" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="58" t="s">
         <v>774</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="C10" s="58" t="s">
         <v>775</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="58" t="s">
         <v>776</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="F10" s="58" t="s">
         <v>777</v>
       </c>
+      <c r="G10" s="58" t="s">
+        <v>778</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>779</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="60" t="s">
-        <v>778</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>779</v>
-      </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="60" t="s">
-        <v>780</v>
-      </c>
-      <c r="F11" s="60" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="58" t="s">
         <v>781</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="C11" s="58" t="s">
         <v>782</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="58" t="s">
+        <v>769</v>
+      </c>
+      <c r="F11" s="58" t="s">
         <v>783</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="G11" s="58" t="s">
         <v>784</v>
       </c>
+      <c r="H11" s="58" t="s">
+        <v>785</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="60" t="s">
-        <v>785</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>786</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="60" t="s">
-        <v>773</v>
-      </c>
-      <c r="F12" s="60" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="58" t="s">
         <v>787</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>788</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="58" t="s">
+        <v>769</v>
+      </c>
+      <c r="F12" s="58" t="s">
         <v>789</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="G12" s="58" t="s">
         <v>790</v>
       </c>
+      <c r="H12" s="58" t="s">
+        <v>791</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="60" t="s">
-        <v>791</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="60" t="s">
-        <v>773</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>793</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>794</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>795</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>796</v>
-      </c>
+      <c r="A13" s="58"/>
     </row>
     <row r="14">
-      <c r="A14" s="60"/>
+      <c r="A14" s="58"/>
     </row>
     <row r="15">
-      <c r="A15" s="60"/>
+      <c r="A15" s="58"/>
     </row>
     <row r="16">
-      <c r="A16" s="60"/>
+      <c r="A16" s="58"/>
     </row>
     <row r="17">
-      <c r="A17" s="60"/>
+      <c r="A17" s="58"/>
     </row>
     <row r="18">
-      <c r="A18" s="60"/>
+      <c r="A18" s="58"/>
     </row>
     <row r="19">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
     </row>
     <row r="20">
-      <c r="A20" s="60"/>
+      <c r="A20" s="58"/>
     </row>
     <row r="21">
-      <c r="A21" s="60"/>
+      <c r="A21" s="58"/>
     </row>
     <row r="22">
-      <c r="A22" s="60"/>
+      <c r="A22" s="58"/>
     </row>
     <row r="23">
-      <c r="A23" s="60"/>
+      <c r="A23" s="58"/>
     </row>
     <row r="24">
-      <c r="A24" s="60"/>
+      <c r="A24" s="58"/>
     </row>
     <row r="25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="58"/>
     </row>
     <row r="26">
-      <c r="A26" s="60"/>
+      <c r="A26" s="58"/>
     </row>
     <row r="27">
-      <c r="A27" s="60"/>
+      <c r="A27" s="58"/>
     </row>
     <row r="28">
-      <c r="A28" s="60"/>
+      <c r="A28" s="58"/>
     </row>
     <row r="29">
-      <c r="A29" s="60"/>
+      <c r="A29" s="58"/>
     </row>
     <row r="30">
-      <c r="A30" s="60"/>
+      <c r="A30" s="58"/>
     </row>
     <row r="31">
-      <c r="A31" s="60"/>
+      <c r="A31" s="58"/>
     </row>
     <row r="32">
-      <c r="A32" s="60"/>
+      <c r="A32" s="58"/>
     </row>
     <row r="33">
-      <c r="A33" s="60"/>
+      <c r="A33" s="58"/>
     </row>
     <row r="34">
-      <c r="A34" s="60"/>
+      <c r="A34" s="58"/>
     </row>
     <row r="35">
-      <c r="A35" s="60"/>
+      <c r="A35" s="58"/>
     </row>
     <row r="36">
-      <c r="A36" s="60"/>
+      <c r="A36" s="58"/>
     </row>
     <row r="37">
-      <c r="A37" s="60"/>
+      <c r="A37" s="58"/>
     </row>
     <row r="38">
-      <c r="A38" s="60"/>
+      <c r="A38" s="58"/>
     </row>
     <row r="39">
-      <c r="A39" s="60"/>
+      <c r="A39" s="58"/>
     </row>
     <row r="40">
-      <c r="A40" s="60"/>
+      <c r="A40" s="58"/>
     </row>
     <row r="41">
-      <c r="A41" s="60"/>
+      <c r="A41" s="58"/>
     </row>
     <row r="42">
-      <c r="A42" s="60"/>
+      <c r="A42" s="58"/>
     </row>
     <row r="43">
-      <c r="A43" s="60"/>
+      <c r="A43" s="58"/>
     </row>
     <row r="44">
-      <c r="A44" s="60"/>
+      <c r="A44" s="58"/>
     </row>
     <row r="45">
-      <c r="A45" s="60"/>
+      <c r="A45" s="58"/>
     </row>
     <row r="46">
-      <c r="A46" s="60"/>
+      <c r="A46" s="58"/>
     </row>
     <row r="47">
-      <c r="A47" s="60"/>
+      <c r="A47" s="58"/>
     </row>
     <row r="48">
-      <c r="A48" s="60"/>
+      <c r="A48" s="58"/>
     </row>
     <row r="49">
-      <c r="A49" s="60"/>
+      <c r="A49" s="58"/>
     </row>
     <row r="50">
-      <c r="A50" s="60"/>
+      <c r="A50" s="58"/>
     </row>
     <row r="51">
-      <c r="A51" s="60"/>
+      <c r="A51" s="58"/>
     </row>
     <row r="52">
-      <c r="A52" s="60"/>
+      <c r="A52" s="58"/>
     </row>
     <row r="53">
-      <c r="A53" s="60"/>
+      <c r="A53" s="58"/>
     </row>
     <row r="54">
-      <c r="A54" s="60"/>
+      <c r="A54" s="58"/>
     </row>
     <row r="55">
-      <c r="A55" s="60"/>
+      <c r="A55" s="58"/>
     </row>
     <row r="56">
-      <c r="A56" s="60"/>
+      <c r="A56" s="58"/>
     </row>
     <row r="57">
-      <c r="A57" s="60"/>
+      <c r="A57" s="58"/>
     </row>
     <row r="58">
-      <c r="A58" s="60"/>
+      <c r="A58" s="58"/>
     </row>
     <row r="59">
-      <c r="A59" s="60"/>
+      <c r="A59" s="58"/>
     </row>
     <row r="60">
-      <c r="A60" s="60"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="60"/>
+      <c r="A60" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7662,371 +7584,371 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="97" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="3" ht="238.5" customHeight="1">
+      <c r="A3" s="98" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>795</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>796</v>
+      </c>
+      <c r="D3" s="77" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="3" ht="238.5" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="E3" s="77" t="s">
         <v>798</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="F3" s="100" t="s">
         <v>799</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="G3" s="101" t="s">
         <v>800</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="H3" s="77" t="s">
         <v>801</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="I3" s="77" t="s">
         <v>802</v>
       </c>
-      <c r="F3" s="102" t="s">
+    </row>
+    <row r="4" ht="53.25" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="77" t="s">
         <v>803</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="C4" s="77" t="s">
         <v>804</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="D4" s="77" t="s">
+        <v>797</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>805</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="F4" s="77" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="4" ht="53.25" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="79" t="s">
+      <c r="G4" s="101" t="s">
         <v>807</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="H4" s="77" t="s">
         <v>808</v>
       </c>
-      <c r="D4" s="79" t="s">
-        <v>801</v>
-      </c>
-      <c r="E4" s="79" t="s">
+      <c r="I4" s="77" t="s">
         <v>809</v>
       </c>
-      <c r="F4" s="79" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="77" t="s">
         <v>810</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="C5" s="77" t="s">
         <v>811</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="D5" s="77" t="s">
+        <v>797</v>
+      </c>
+      <c r="E5" s="77" t="s">
         <v>812</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="F5" s="77" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="79" t="s">
+      <c r="G5" s="77" t="s">
         <v>814</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="H5" s="77" t="s">
         <v>815</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>801</v>
-      </c>
-      <c r="E5" s="79" t="s">
+      <c r="I5" s="102" t="s">
         <v>816</v>
       </c>
-      <c r="F5" s="79" t="s">
+    </row>
+    <row r="6" ht="201.75" customHeight="1">
+      <c r="A6" s="103" t="s">
         <v>817</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="B6" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="C6" s="44" t="s">
         <v>819</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="D6" s="47" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="6" ht="201.75" customHeight="1">
-      <c r="A6" s="105" t="s">
+      <c r="E6" s="44" t="s">
         <v>821</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="F6" s="104" t="s">
         <v>822</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="H6" s="44" t="s">
         <v>824</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="I6" s="105" t="s">
         <v>825</v>
       </c>
-      <c r="F6" s="106" t="s">
+    </row>
+    <row r="7" ht="121.5" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>826</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="E7" s="44" t="s">
+        <v>821</v>
+      </c>
+      <c r="F7" s="106" t="s">
         <v>828</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="G7" s="44" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="7" ht="121.5" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="H7" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="I7" s="107" t="s">
         <v>831</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>825</v>
-      </c>
-      <c r="F7" s="108" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="C8" s="108" t="s">
         <v>833</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="D8" s="44" t="s">
         <v>834</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="E8" s="44" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
+      <c r="F8" s="109" t="s">
         <v>836</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="G8" s="109" t="s">
         <v>837</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="H8" s="110" t="s">
         <v>838</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="I8" s="111" t="s">
         <v>839</v>
       </c>
-      <c r="F8" s="111" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="112" t="s">
         <v>840</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="C9" s="110" t="s">
         <v>841</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="D9" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>835</v>
+      </c>
+      <c r="F9" s="44" t="s">
         <v>842</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="G9" s="109" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="114" t="s">
+      <c r="H9" s="110" t="s">
         <v>844</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="I9" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>831</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>839</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>846</v>
-      </c>
-      <c r="G9" s="111" t="s">
-        <v>847</v>
-      </c>
-      <c r="H9" s="112" t="s">
-        <v>848</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>849</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="60"/>
+      <c r="A10" s="58"/>
     </row>
     <row r="11">
-      <c r="A11" s="60"/>
+      <c r="A11" s="58"/>
     </row>
     <row r="12">
-      <c r="A12" s="60"/>
+      <c r="A12" s="58"/>
     </row>
     <row r="13">
-      <c r="A13" s="60"/>
+      <c r="A13" s="58"/>
     </row>
     <row r="14">
-      <c r="A14" s="60"/>
+      <c r="A14" s="58"/>
     </row>
     <row r="15">
-      <c r="A15" s="60"/>
+      <c r="A15" s="58"/>
     </row>
     <row r="16">
-      <c r="A16" s="60"/>
+      <c r="A16" s="58"/>
     </row>
     <row r="17">
-      <c r="A17" s="60"/>
+      <c r="A17" s="58"/>
     </row>
     <row r="18">
-      <c r="A18" s="60"/>
+      <c r="A18" s="58"/>
     </row>
     <row r="19">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
     </row>
     <row r="20">
-      <c r="A20" s="60"/>
+      <c r="A20" s="58"/>
     </row>
     <row r="21">
-      <c r="A21" s="60"/>
+      <c r="A21" s="58"/>
     </row>
     <row r="22">
-      <c r="A22" s="60"/>
+      <c r="A22" s="58"/>
     </row>
     <row r="23">
-      <c r="A23" s="60"/>
+      <c r="A23" s="58"/>
     </row>
     <row r="24">
-      <c r="A24" s="60"/>
+      <c r="A24" s="58"/>
     </row>
     <row r="25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="58"/>
     </row>
     <row r="26">
-      <c r="A26" s="60"/>
+      <c r="A26" s="58"/>
     </row>
     <row r="27">
-      <c r="A27" s="60"/>
+      <c r="A27" s="58"/>
     </row>
     <row r="28">
-      <c r="A28" s="60"/>
+      <c r="A28" s="58"/>
     </row>
     <row r="29">
-      <c r="A29" s="60"/>
+      <c r="A29" s="58"/>
     </row>
     <row r="30">
-      <c r="A30" s="60"/>
+      <c r="A30" s="58"/>
     </row>
     <row r="31">
-      <c r="A31" s="60"/>
+      <c r="A31" s="58"/>
     </row>
     <row r="32">
-      <c r="A32" s="60"/>
+      <c r="A32" s="58"/>
     </row>
     <row r="33">
-      <c r="A33" s="60"/>
+      <c r="A33" s="58"/>
     </row>
     <row r="34">
-      <c r="A34" s="60"/>
+      <c r="A34" s="58"/>
     </row>
     <row r="35">
-      <c r="A35" s="60"/>
+      <c r="A35" s="58"/>
     </row>
     <row r="36">
-      <c r="A36" s="60"/>
+      <c r="A36" s="58"/>
     </row>
     <row r="37">
-      <c r="A37" s="60"/>
+      <c r="A37" s="58"/>
     </row>
     <row r="38">
-      <c r="A38" s="60"/>
+      <c r="A38" s="58"/>
     </row>
     <row r="39">
-      <c r="A39" s="60"/>
+      <c r="A39" s="58"/>
     </row>
     <row r="40">
-      <c r="A40" s="60"/>
+      <c r="A40" s="58"/>
     </row>
     <row r="41">
-      <c r="A41" s="60"/>
+      <c r="A41" s="58"/>
     </row>
     <row r="42">
-      <c r="A42" s="60"/>
+      <c r="A42" s="58"/>
     </row>
     <row r="43">
-      <c r="A43" s="60"/>
+      <c r="A43" s="58"/>
     </row>
     <row r="44">
-      <c r="A44" s="60"/>
+      <c r="A44" s="58"/>
     </row>
     <row r="45">
-      <c r="A45" s="60"/>
+      <c r="A45" s="58"/>
     </row>
     <row r="46">
-      <c r="A46" s="60"/>
+      <c r="A46" s="58"/>
     </row>
     <row r="47">
-      <c r="A47" s="60"/>
+      <c r="A47" s="58"/>
     </row>
     <row r="48">
-      <c r="A48" s="60"/>
+      <c r="A48" s="58"/>
     </row>
     <row r="49">
-      <c r="A49" s="60"/>
+      <c r="A49" s="58"/>
     </row>
     <row r="50">
-      <c r="A50" s="60"/>
+      <c r="A50" s="58"/>
     </row>
     <row r="51">
-      <c r="A51" s="60"/>
+      <c r="A51" s="58"/>
     </row>
     <row r="52">
-      <c r="A52" s="60"/>
+      <c r="A52" s="58"/>
     </row>
     <row r="53">
-      <c r="A53" s="60"/>
+      <c r="A53" s="58"/>
     </row>
     <row r="54">
-      <c r="A54" s="60"/>
+      <c r="A54" s="58"/>
     </row>
     <row r="55">
-      <c r="A55" s="60"/>
+      <c r="A55" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
